--- a/out/Lens_Pillars_Overall.xlsx
+++ b/out/Lens_Pillars_Overall.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Valor\water-equity-lens\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{955F674F-522B-4D01-BC26-AE95AB1B068F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024B0DF-2DC6-439D-969E-25B356D59C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="2" xr2:uid="{5991F100-B7ED-466B-A5C3-01956AF2BF1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1" xr2:uid="{5991F100-B7ED-466B-A5C3-01956AF2BF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="PIllar 1" sheetId="1" r:id="rId1"/>
-    <sheet name="PIllar 2" sheetId="3" r:id="rId2"/>
-    <sheet name="PIllar 3" sheetId="4" r:id="rId3"/>
+    <sheet name="notes" sheetId="5" r:id="rId2"/>
+    <sheet name="PIllar 2" sheetId="3" r:id="rId3"/>
+    <sheet name="PIllar 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Affordability</t>
   </si>
@@ -101,9 +102,6 @@
     <t>Pillar 1</t>
   </si>
   <si>
-    <t>Customer Assitance Program Participation (%)</t>
-  </si>
-  <si>
     <t>Service Quality</t>
   </si>
   <si>
@@ -264,6 +262,27 @@
   </si>
   <si>
     <t>49-72 hours backup power</t>
+  </si>
+  <si>
+    <t>Customer Assistance Program Participation (%)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>"Summary of performance"</t>
+  </si>
+  <si>
+    <t>Per census tract and overall</t>
+  </si>
+  <si>
+    <t>3-levels of performance per indicator</t>
+  </si>
+  <si>
+    <t>where level 2 is middle ~66%</t>
+  </si>
+  <si>
+    <t>Maps for each indicator red/yellow/green</t>
   </si>
 </sst>
 </file>
@@ -299,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +355,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -370,18 +407,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -394,9 +422,21 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD3152B-DAC3-4552-9667-F1FD488F2857}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +766,13 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -745,8 +785,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -754,8 +794,8 @@
         <v>1.3966567161355401</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,8 +803,8 @@
         <v>0.76977771175246701</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -772,8 +812,8 @@
         <v>1.1302991949768399</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -781,8 +821,8 @@
         <v>1.4908206782012099</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -790,8 +830,8 @@
         <v>1.8513421614255801</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,8 +839,8 @@
         <v>2.21186364464995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -808,8 +848,8 @@
         <v>2.5723851278743202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -817,13 +857,13 @@
         <v>2.9329066110986899</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -831,11 +871,11 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
@@ -848,60 +888,67 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
@@ -914,14 +961,18 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="24"/>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C24" s="5">
         <v>1.7</v>
@@ -932,14 +983,18 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="25"/>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5">
         <v>15</v>
@@ -951,16 +1006,20 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
@@ -971,15 +1030,18 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5">
         <v>1.97</v>
@@ -990,14 +1052,17 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -1011,7 +1076,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <f>SUMPRODUCT(D14:D33,E14:E33)</f>
@@ -1030,11 +1095,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3447F925-AA6B-4D52-85C1-6AB47A8CC088}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD1E472-B6AD-4AA6-AB85-4BA61E38461C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,8 +1150,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
-        <v>27</v>
+      <c r="A1" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1059,35 +1164,35 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>36</v>
+      <c r="A2" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10">
         <f>C3/C2</f>
         <v>0.77666666666666662</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>-0.78</v>
       </c>
       <c r="E4">
@@ -1095,9 +1200,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1110,9 +1215,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1125,9 +1230,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1140,9 +1245,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1155,9 +1260,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -1171,7 +1276,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <f>SUMPRODUCT(D4:D9,E4:E9)</f>
@@ -1187,12 +1292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C88C01-5910-4D10-853A-2B50D90643AE}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,14 +1311,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
-        <v>39</v>
+      <c r="A1" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -1223,9 +1328,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11"/>
+      <c r="A2" s="9"/>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>80459</v>
@@ -1233,62 +1338,62 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>44</v>
+      <c r="A3" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="A4" s="22"/>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13">
         <f>C3/C2</f>
         <v>5.592910675002175E-4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4">
         <f>-C4</f>
         <v>-5.592910675002175E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="6"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="A6" s="22"/>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="15">
         <f>SUMPRODUCT(D7:D16,E7:E16)</f>
         <v>0.76843343179083257</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="13">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11">
         <f>-C6</f>
         <v>-0.76843343179083257</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>55</v>
+      <c r="A7" s="22"/>
+      <c r="B7" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -1302,12 +1407,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>56</v>
+      <c r="A8" s="22"/>
+      <c r="B8" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -1321,12 +1426,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
-        <v>57</v>
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1340,12 +1445,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17" t="s">
-        <v>58</v>
+      <c r="A10" s="22"/>
+      <c r="B10" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>0.75</v>
@@ -1359,12 +1464,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17" t="s">
-        <v>59</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>0.75</v>
@@ -1378,12 +1483,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17" t="s">
-        <v>60</v>
+      <c r="A12" s="22"/>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>0.5</v>
@@ -1397,12 +1502,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17" t="s">
-        <v>61</v>
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1416,12 +1521,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>62</v>
+      <c r="A14" s="22"/>
+      <c r="B14" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>0.75</v>
@@ -1435,12 +1540,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
-        <v>63</v>
+      <c r="A15" s="22"/>
+      <c r="B15" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1454,12 +1559,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
-        <v>64</v>
+      <c r="A16" s="22"/>
+      <c r="B16" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>0.75</v>
@@ -1473,7 +1578,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="F17">
         <f>SUM(F7:F16)</f>
         <v>0.91410000000000002</v>
@@ -1481,20 +1586,20 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13">
         <v>8.2100000000000003E-3</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20">
         <f>C20</f>
         <v>8.2100000000000003E-3</v>
@@ -1505,15 +1610,15 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
-      <c r="B22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="13">
         <v>5.0790000000000002E-2</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22">
         <f>C22</f>
         <v>5.0790000000000002E-2</v>
@@ -1524,15 +1629,15 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="G24">
         <f>C24</f>
         <v>5.6999999999999998E-4</v>
@@ -1543,16 +1648,16 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13">
         <f>0.00799</f>
         <v>7.9900000000000006E-3</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="G26">
         <f>C26</f>
         <v>7.9900000000000006E-3</v>
@@ -1563,15 +1668,15 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13">
         <v>2.96</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28">
         <f>C28</f>
         <v>2.96</v>
@@ -1582,70 +1687,70 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>0.40400000000000003</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32">
         <f>-C32</f>
         <v>-0.40400000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="20">
+      <c r="A34" s="22"/>
+      <c r="B34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="17">
         <v>9.4E-2</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16">
         <f>-C34</f>
         <v>-9.4E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="A36" s="22"/>
+      <c r="B36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="15">
         <v>0.44</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="13">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="11">
         <f>-C36</f>
         <v>-0.44</v>
       </c>
@@ -1662,6 +1767,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB4338945151704FA993C32DC31168A9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="007bbfce7b13a20927d9dfadac429e84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6a0cc935-8617-432d-a1fd-0392b5b0e3c0" xmlns:ns4="68dd759b-e78c-49b4-b762-882e9fb3172a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb4b661f38acd5b786ab838edbdbfe7e" ns3:_="" ns4:_="">
     <xsd:import namespace="6a0cc935-8617-432d-a1fd-0392b5b0e3c0"/>
@@ -1878,22 +1998,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D33343-E629-4E3D-AF4E-B412E111101B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="68dd759b-e78c-49b4-b762-882e9fb3172a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6a0cc935-8617-432d-a1fd-0392b5b0e3c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAE87BA-9DDD-498D-963D-88B2BE5367E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AEBDE24-3671-4FBC-A081-6B8129B71D10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1910,29 +2040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAE87BA-9DDD-498D-963D-88B2BE5367E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D33343-E629-4E3D-AF4E-B412E111101B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="68dd759b-e78c-49b4-b762-882e9fb3172a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6a0cc935-8617-432d-a1fd-0392b5b0e3c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/out/Lens_Pillars_Overall.xlsx
+++ b/out/Lens_Pillars_Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Valor\water-equity-lens\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024B0DF-2DC6-439D-969E-25B356D59C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA4EB3-8367-4E5C-9CEF-89E17A654146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1" xr2:uid="{5991F100-B7ED-466B-A5C3-01956AF2BF1C}"/>
+    <workbookView xWindow="-27990" yWindow="15" windowWidth="27810" windowHeight="15585" activeTab="2" xr2:uid="{5991F100-B7ED-466B-A5C3-01956AF2BF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="PIllar 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>Affordability</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Customer Assistance Program Participation (%)</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>"Summary of performance"</t>
   </si>
   <si>
@@ -283,6 +280,90 @@
   </si>
   <si>
     <t>Maps for each indicator red/yellow/green</t>
+  </si>
+  <si>
+    <t>Threshold_Good</t>
+  </si>
+  <si>
+    <t>EPA SDWIS labels as "serious violator"</t>
+  </si>
+  <si>
+    <t>Range_Good</t>
+  </si>
+  <si>
+    <t>Range_poor</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>&gt;25</t>
+  </si>
+  <si>
+    <t>10-25</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>&gt;5</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>&gt;0 but not serious violator</t>
+  </si>
+  <si>
+    <t>Range_fair</t>
+  </si>
+  <si>
+    <t>&lt;20</t>
+  </si>
+  <si>
+    <t>20-35</t>
+  </si>
+  <si>
+    <t>&gt;35</t>
+  </si>
+  <si>
+    <t>&lt;7</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>&gt;50</t>
+  </si>
+  <si>
+    <t>Threshold_fair</t>
+  </si>
+  <si>
+    <t>25-50</t>
+  </si>
+  <si>
+    <t>Threshold poor</t>
+  </si>
+  <si>
+    <t>&lt;25</t>
   </si>
 </sst>
 </file>
@@ -318,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,12 +448,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -387,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -422,6 +497,8 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,9 +511,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD3152B-DAC3-4552-9667-F1FD488F2857}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,15 +840,26 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -781,21 +868,27 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1.3966567161355401</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -803,8 +896,8 @@
         <v>0.76977771175246701</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,8 +905,8 @@
         <v>1.1302991949768399</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -821,8 +914,8 @@
         <v>1.4908206782012099</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -830,8 +923,8 @@
         <v>1.8513421614255801</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -839,8 +932,8 @@
         <v>2.21186364464995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -848,8 +941,8 @@
         <v>2.5723851278743202</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -857,25 +950,34 @@
         <v>2.9329066110986899</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
@@ -885,70 +987,69 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="G14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <v>2</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <v>3</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="21">
         <v>4</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>5</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
@@ -958,18 +1059,20 @@
       <c r="D22" s="5">
         <v>1.9</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="7" t="s">
         <v>75</v>
@@ -980,18 +1083,20 @@
       <c r="D24" s="5">
         <v>-1.7</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7" t="s">
         <v>25</v>
@@ -1003,21 +1108,23 @@
         <f>-15</f>
         <v>-15</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="F26" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="7" t="s">
         <v>22</v>
       </c>
@@ -1027,19 +1134,22 @@
       <c r="D29" s="5">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
@@ -1049,18 +1159,21 @@
       <c r="D31" s="5">
         <v>1.97</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -1070,17 +1183,19 @@
       <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>37</v>
-      </c>
-      <c r="E35">
-        <f>SUMPRODUCT(D14:D33,E14:E33)</f>
-        <v>-9.83</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3447F925-AA6B-4D52-85C1-6AB47A8CC088}">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1106,27 +1221,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1136,20 +1251,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD1E472-B6AD-4AA6-AB85-4BA61E38461C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -1159,12 +1274,18 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1174,8 +1295,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1183,8 +1304,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1195,12 +1316,18 @@
       <c r="D4" s="11">
         <v>-0.78</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1210,12 +1337,15 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1225,12 +1355,15 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1240,12 +1373,15 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1255,12 +1391,18 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
@@ -1270,17 +1412,10 @@
       <c r="D9">
         <v>55</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>36</v>
-      </c>
-      <c r="E11">
-        <f>SUMPRODUCT(D4:D9,E4:E9)</f>
-        <v>60.22</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1473,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1349,7 +1484,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
@@ -1366,12 +1501,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="6"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1388,7 +1523,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
@@ -1407,7 +1542,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="14" t="s">
         <v>55</v>
       </c>
@@ -1426,7 +1561,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="14" t="s">
         <v>56</v>
       </c>
@@ -1445,7 +1580,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="14" t="s">
         <v>57</v>
       </c>
@@ -1464,7 +1599,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="14" t="s">
         <v>58</v>
       </c>
@@ -1483,7 +1618,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="14" t="s">
         <v>59</v>
       </c>
@@ -1502,7 +1637,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
@@ -1521,7 +1656,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1540,7 +1675,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -1559,7 +1694,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -1585,12 +1720,12 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
@@ -1606,10 +1741,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="13" t="s">
         <v>46</v>
       </c>
@@ -1625,10 +1760,10 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
@@ -1644,10 +1779,10 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="13" t="s">
         <v>48</v>
       </c>
@@ -1664,10 +1799,10 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="13" t="s">
         <v>49</v>
       </c>
@@ -1687,12 +1822,12 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="13" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1843,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -1716,7 +1851,7 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="13" t="s">
         <v>52</v>
       </c>
@@ -1732,7 +1867,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1740,7 +1875,7 @@
       <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="13" t="s">
         <v>53</v>
       </c>
@@ -1767,21 +1902,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB4338945151704FA993C32DC31168A9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="007bbfce7b13a20927d9dfadac429e84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6a0cc935-8617-432d-a1fd-0392b5b0e3c0" xmlns:ns4="68dd759b-e78c-49b4-b762-882e9fb3172a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb4b661f38acd5b786ab838edbdbfe7e" ns3:_="" ns4:_="">
     <xsd:import namespace="6a0cc935-8617-432d-a1fd-0392b5b0e3c0"/>
@@ -1998,32 +2118,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D33343-E629-4E3D-AF4E-B412E111101B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="68dd759b-e78c-49b4-b762-882e9fb3172a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6a0cc935-8617-432d-a1fd-0392b5b0e3c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAE87BA-9DDD-498D-963D-88B2BE5367E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AEBDE24-3671-4FBC-A081-6B8129B71D10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2040,4 +2150,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAE87BA-9DDD-498D-963D-88B2BE5367E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D33343-E629-4E3D-AF4E-B412E111101B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="68dd759b-e78c-49b4-b762-882e9fb3172a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6a0cc935-8617-432d-a1fd-0392b5b0e3c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/out/Lens_Pillars_Overall.xlsx
+++ b/out/Lens_Pillars_Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Valor\water-equity-lens\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA4EB3-8367-4E5C-9CEF-89E17A654146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC0EBA6-0BD0-4E62-8FD5-2755C952544C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="15" windowWidth="27810" windowHeight="15585" activeTab="2" xr2:uid="{5991F100-B7ED-466B-A5C3-01956AF2BF1C}"/>
+    <workbookView xWindow="-29220" yWindow="540" windowWidth="27810" windowHeight="15585" activeTab="3" xr2:uid="{5991F100-B7ED-466B-A5C3-01956AF2BF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="PIllar 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
   <si>
     <t>Affordability</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Pillar Value</t>
   </si>
   <si>
-    <t>Index Weight</t>
-  </si>
-  <si>
     <t>Annual Accounts (%) with at least 1 shutoff</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Service Quality</t>
   </si>
   <si>
-    <t>Annual accounts with at least 1 service interruption (%)</t>
-  </si>
-  <si>
     <t>Annual accounts with at least 1 boil water event (%)</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>Staff Living in Service Area</t>
   </si>
   <si>
-    <t>(%) Staff in Service Area</t>
-  </si>
-  <si>
     <t>Requirement for engaging in diverse recruitment processes</t>
   </si>
   <si>
@@ -165,24 +156,12 @@
     <t>Total HH</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Meetings/ HH </t>
-  </si>
-  <si>
     <t>Planning</t>
   </si>
   <si>
     <t>Infrastructure Conditions</t>
   </si>
   <si>
-    <t>Main breaks/1000ft</t>
-  </si>
-  <si>
-    <t>Leaks detected/ 1000ft</t>
-  </si>
-  <si>
-    <t>Sewer overflows per 1000 Connections</t>
-  </si>
-  <si>
     <t>Proportion service lines lead</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>Percent Network renewed</t>
   </si>
   <si>
-    <t>% Real losses reduced</t>
-  </si>
-  <si>
     <t>1. Emergency Response Plan</t>
   </si>
   <si>
@@ -364,13 +340,127 @@
   </si>
   <si>
     <t>&lt;25</t>
+  </si>
+  <si>
+    <t>0.5-</t>
+  </si>
+  <si>
+    <t>0.5-0.75</t>
+  </si>
+  <si>
+    <t>&lt;0.5</t>
+  </si>
+  <si>
+    <t>Annual Accounts Delinquent (%)</t>
+  </si>
+  <si>
+    <t>&lt;2.5</t>
+  </si>
+  <si>
+    <t>2.5-14</t>
+  </si>
+  <si>
+    <t>&gt;14</t>
+  </si>
+  <si>
+    <t>(%) Staff in Service Area /% Connections in service  area</t>
+  </si>
+  <si>
+    <t>Service Quality Complains / 1000 Connections</t>
+  </si>
+  <si>
+    <t>&lt;1.5</t>
+  </si>
+  <si>
+    <t>1.5-6.5</t>
+  </si>
+  <si>
+    <t>&gt;6.5</t>
+  </si>
+  <si>
+    <t>% Complaints resolved</t>
+  </si>
+  <si>
+    <t>Main breaks/100 miles</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>5-20</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>&lt;2</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>Sewer overflows per 100 mi</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>&gt;8</t>
+  </si>
+  <si>
+    <t>&gt;=7</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>0.5-2</t>
+  </si>
+  <si>
+    <t>Planned Linear Maitenance (hrs/100mi)</t>
+  </si>
+  <si>
+    <t>&gt;1800</t>
+  </si>
+  <si>
+    <t>650-1800</t>
+  </si>
+  <si>
+    <t>&lt;650</t>
+  </si>
+  <si>
+    <t>&gt;97</t>
+  </si>
+  <si>
+    <t>91-97</t>
+  </si>
+  <si>
+    <t>&lt;91</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Total service interruptions/ customers</t>
+  </si>
+  <si>
+    <t>&gt;4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +488,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +559,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -458,11 +584,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -511,10 +640,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="4"/>
+    <xf numFmtId="16" fontId="6" fillId="11" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -828,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD3152B-DAC3-4552-9667-F1FD488F2857}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,22 +986,23 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,14 +1024,14 @@
       <c r="C3" s="3">
         <v>1.3966567161355401</v>
       </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>88</v>
+      <c r="F3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,14 +1110,14 @@
       <c r="C12">
         <v>9.5</v>
       </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>100</v>
+      <c r="F12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,14 +1134,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="26">
         <v>1</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
+      <c r="G14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1047,161 +1194,224 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
-      <c r="B22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5">
+    </row>
+    <row r="23" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
         <v>1.9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>1.9</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="5">
+    </row>
+    <row r="25" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="5">
         <v>1.7</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <v>-1.7</v>
       </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5">
+    </row>
+    <row r="27" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f>-15</f>
         <v>-15</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F27" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="7" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="F31">
+      <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="D36" s="5">
         <v>0</v>
       </c>
-      <c r="D33" s="5">
+      <c r="F36" s="26">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>37</v>
+      <c r="G36" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A29:A36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,27 +1431,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1253,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD1E472-B6AD-4AA6-AB85-4BA61E38461C}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,11 +1472,14 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="26"/>
+    <col min="8" max="8" width="9.140625" style="28"/>
+    <col min="9" max="9" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1274,22 +1487,22 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>107</v>
+      <c r="G1" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -1298,16 +1511,16 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10">
         <f>C3/C2</f>
@@ -1316,20 +1529,20 @@
       <c r="D4" s="11">
         <v>-0.78</v>
       </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" t="s">
-        <v>108</v>
+      <c r="G4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1337,17 +1550,17 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1355,17 +1568,17 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="26">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1373,17 +1586,17 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="26">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1391,20 +1604,20 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="28">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -1415,7 +1628,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C88C01-5910-4D10-853A-2B50D90643AE}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,73 +1655,82 @@
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="26"/>
+    <col min="10" max="10" width="9.140625" style="28"/>
+    <col min="11" max="11" width="9.140625" style="32"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>80459</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="28">
+        <v>1</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="13">
-        <f>C3/C2</f>
-        <v>5.592910675002175E-4</v>
-      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4">
-        <f>-C4</f>
-        <v>-5.592910675002175E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="6"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15">
         <f>SUMPRODUCT(D7:D16,E7:E16)</f>
@@ -1521,14 +1743,23 @@
         <f>-C6</f>
         <v>-0.76843343179083257</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -1541,13 +1772,13 @@
         <v>0.1389</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -1560,13 +1791,13 @@
         <v>0.15609999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1579,13 +1810,13 @@
         <v>0.18679999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>0.75</v>
@@ -1598,13 +1829,13 @@
         <v>5.9499999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>0.75</v>
@@ -1617,13 +1848,13 @@
         <v>9.6600000000000005E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>0.5</v>
@@ -1635,14 +1866,17 @@
       <c r="F12">
         <v>8.7800000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1655,13 +1889,13 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>0.75</v>
@@ -1674,13 +1908,13 @@
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1693,13 +1927,13 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>0.75</v>
@@ -1712,22 +1946,22 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="F17">
         <f>SUM(F7:F16)</f>
         <v>0.91410000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="13" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C20" s="13">
         <v>8.2100000000000003E-3</v>
@@ -1735,37 +1969,34 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20">
-        <f>C20</f>
-        <v>8.2100000000000003E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I20" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="13">
-        <v>5.0790000000000002E-2</v>
-      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22">
-        <f>C22</f>
-        <v>5.0790000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="13" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C24" s="13">
         <v>5.6999999999999998E-4</v>
@@ -1773,18 +2004,23 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24">
-        <f>C24</f>
-        <v>5.6999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I24" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" s="13">
         <f>0.00799</f>
@@ -1793,18 +2029,23 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26">
-        <f>C26</f>
-        <v>7.9900000000000006E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C28" s="13">
         <v>2.96</v>
@@ -1812,24 +2053,25 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28">
-        <f>C28</f>
-        <v>2.96</v>
-      </c>
-      <c r="R28">
-        <f>1+0.75+0.5+0.25</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I28" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C32" s="13">
         <v>0.40400000000000003</v>
@@ -1837,12 +2079,17 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32">
-        <f>-C32</f>
-        <v>-0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1850,10 +2097,10 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C34" s="17">
         <v>9.4E-2</v>
@@ -1861,12 +2108,18 @@
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="16">
-        <f>-C34</f>
-        <v>-9.4E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="16"/>
+      <c r="I34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -1874,10 +2127,10 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="13" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C36" s="15">
         <v>0.44</v>
@@ -1885,10 +2138,24 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="11">
-        <f>-C36</f>
-        <v>-0.44</v>
-      </c>
+      <c r="G36" s="11"/>
+      <c r="I36" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
